--- a/biology/Botanique/Domaine_de_Golden_Rock/Domaine_de_Golden_Rock.xlsx
+++ b/biology/Botanique/Domaine_de_Golden_Rock/Domaine_de_Golden_Rock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Domaine de Golden Rock est une ancienne plantation située près de Gingerland à Saint-Christophe-et-Niévès. C'est un des bâtiments les mieux préservés de Niévès.
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce domaine, mentionné dans Pares West India Fortune, a été acquis par John Pinney sous hypothèque qui a construit et rénové certains bâtiments. Il fut ensuite loué à Edward Huggins dans les années 1790, qui, finalement, l'acheta, et l'agrandit considérablement dans les années 1800. En 1899, le père de Norman Maynard s'installe à Niévès et exerce les fonctions de directeur pendant plusieurs années.
 </t>
@@ -543,13 +557,15 @@
           <t>Rénovations et restaurations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le complexe a été racheté et restauré complètement par Helen et Brice Marden qui l'ont transformé en hôtel de luxe. Les rénovations se sont surtout portés sur ces différentes bâtiments :
 Le moulin à vent, construit en 1811, a été l'un des tout premiers moulins à vent à broyer la canne à sucre. C'est aujourd'hui une suite nuptiale.
 Le bureau de l'hôtel était à l'origine le bureau de compte et du domaine. La maçonnerie en pierre et la maçonnerie sont uniques et auraient été construites par des maçons anglais qu'Edward Huggins avait emmenés à Niévès pour apprendre la maçonnerie à ses esclaves.
 La salle à manger, le bar et la zone de réception étaient auparavant un hôpital pour esclaves construit en pierre après l'abolition de l'esclavage en 1813. En 1958, le bâtiment de 100 pieds sur 25 a été restauré et agrandi, l’extension devenant ainsi la salle à manger. Elle est construite à l'est de la structure et est accessible par des escaliers monumentaux.
-Les bâtiments non restaurés ont été méticuleusement nettoyés des mauvaises herbes et nettoyés pour montrer l'étendue de la cour de la plantation[1].
+Les bâtiments non restaurés ont été méticuleusement nettoyés des mauvaises herbes et nettoyés pour montrer l'étendue de la cour de la plantation.
 </t>
         </is>
       </c>
@@ -578,9 +594,11 @@
           <t>Jardins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rénovation du domaine s'est accompagnée de la création de jardins tropicaux luxuriants conçus par les propriétaires avec l'architecte paysagiste de Miami, Raymond Jungles[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rénovation du domaine s'est accompagnée de la création de jardins tropicaux luxuriants conçus par les propriétaires avec l'architecte paysagiste de Miami, Raymond Jungles.
 </t>
         </is>
       </c>
